--- a/code/build/results_MyFireflyD10_local_search/results_cec2017_10.xlsx
+++ b/code/build/results_MyFireflyD10_local_search/results_cec2017_10.xlsx
@@ -603,94 +603,94 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9861365000</v>
+        <v>4737163000</v>
       </c>
       <c r="D2" t="n">
-        <v>184336561400</v>
+        <v>598194700</v>
       </c>
       <c r="E2" t="n">
-        <v>38024.736</v>
+        <v>39821.54</v>
       </c>
       <c r="F2" t="n">
-        <v>374.178</v>
+        <v>128.1429</v>
       </c>
       <c r="G2" t="n">
-        <v>99.32749800000001</v>
+        <v>84.02681</v>
       </c>
       <c r="H2" t="n">
-        <v>66.55992999999999</v>
+        <v>54.99803</v>
       </c>
       <c r="I2" t="n">
-        <v>434.82064</v>
+        <v>328.9419</v>
       </c>
       <c r="J2" t="n">
-        <v>79.20436600000001</v>
+        <v>48.77922</v>
       </c>
       <c r="K2" t="n">
-        <v>2580.22372</v>
+        <v>2426.177</v>
       </c>
       <c r="L2" t="n">
-        <v>1853.4916</v>
+        <v>1212.187</v>
       </c>
       <c r="M2" t="n">
-        <v>539.63686</v>
+        <v>117.4848</v>
       </c>
       <c r="N2" t="n">
-        <v>215845507.6</v>
+        <v>5458562</v>
       </c>
       <c r="O2" t="n">
-        <v>4809629.08</v>
+        <v>2549967</v>
       </c>
       <c r="P2" t="n">
-        <v>90164.3202</v>
+        <v>24983.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>35740.196</v>
+        <v>16603.53</v>
       </c>
       <c r="R2" t="n">
-        <v>558.59682</v>
+        <v>312.411</v>
       </c>
       <c r="S2" t="n">
-        <v>361.6401</v>
+        <v>392.1213</v>
       </c>
       <c r="T2" t="n">
-        <v>124442956.6</v>
+        <v>35712520</v>
       </c>
       <c r="U2" t="n">
-        <v>1951000.66</v>
+        <v>6088.533</v>
       </c>
       <c r="V2" t="n">
-        <v>252.4227</v>
+        <v>192.7521</v>
       </c>
       <c r="W2" t="n">
-        <v>308.73526</v>
+        <v>228.0537</v>
       </c>
       <c r="X2" t="n">
-        <v>783.7736600000001</v>
+        <v>639.1755000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>439.39298</v>
+        <v>431.2727</v>
       </c>
       <c r="Z2" t="n">
-        <v>412.6209</v>
+        <v>444.846</v>
       </c>
       <c r="AA2" t="n">
-        <v>847.7301199999999</v>
+        <v>840.522</v>
       </c>
       <c r="AB2" t="n">
-        <v>1460.4306</v>
+        <v>871.852</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.367</v>
+        <v>516.5083</v>
       </c>
       <c r="AD2" t="n">
-        <v>810.83012</v>
+        <v>556.2074</v>
       </c>
       <c r="AE2" t="n">
-        <v>611.9182800000001</v>
+        <v>527.6562</v>
       </c>
       <c r="AF2" t="n">
-        <v>6399301.36</v>
+        <v>6322226</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
@@ -704,94 +704,94 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6497831800</v>
+        <v>604859600</v>
       </c>
       <c r="D3" t="n">
-        <v>98261575400</v>
+        <v>631841</v>
       </c>
       <c r="E3" t="n">
-        <v>28584.09</v>
+        <v>35941.83</v>
       </c>
       <c r="F3" t="n">
-        <v>281.153234</v>
+        <v>30.89129</v>
       </c>
       <c r="G3" t="n">
-        <v>99.32749800000001</v>
+        <v>82.58192</v>
       </c>
       <c r="H3" t="n">
-        <v>64.17191800000001</v>
+        <v>48.22275</v>
       </c>
       <c r="I3" t="n">
-        <v>425.2570400000001</v>
+        <v>109.0707</v>
       </c>
       <c r="J3" t="n">
-        <v>79.20436600000001</v>
+        <v>46.7847</v>
       </c>
       <c r="K3" t="n">
-        <v>2378.24972</v>
+        <v>2240.418</v>
       </c>
       <c r="L3" t="n">
-        <v>1748.855</v>
+        <v>1208.926</v>
       </c>
       <c r="M3" t="n">
-        <v>536.1255199999999</v>
+        <v>100.2126</v>
       </c>
       <c r="N3" t="n">
-        <v>148651187.6</v>
+        <v>4037194</v>
       </c>
       <c r="O3" t="n">
-        <v>2525937.44</v>
+        <v>46995.59</v>
       </c>
       <c r="P3" t="n">
-        <v>60143.85866000001</v>
+        <v>24983.31</v>
       </c>
       <c r="Q3" t="n">
-        <v>32627.942</v>
+        <v>5493.932</v>
       </c>
       <c r="R3" t="n">
-        <v>558.5558599999999</v>
+        <v>303.7097</v>
       </c>
       <c r="S3" t="n">
-        <v>233.72796</v>
+        <v>392.1092</v>
       </c>
       <c r="T3" t="n">
-        <v>652587.34</v>
+        <v>150451.5</v>
       </c>
       <c r="U3" t="n">
-        <v>217718.26</v>
+        <v>4305.276</v>
       </c>
       <c r="V3" t="n">
-        <v>247.06068</v>
+        <v>189.2077</v>
       </c>
       <c r="W3" t="n">
-        <v>276.81388</v>
+        <v>227.5592</v>
       </c>
       <c r="X3" t="n">
-        <v>765.6887</v>
+        <v>352.4534</v>
       </c>
       <c r="Y3" t="n">
-        <v>429.12602</v>
+        <v>420.336</v>
       </c>
       <c r="Z3" t="n">
-        <v>392.5751</v>
+        <v>443.8609</v>
       </c>
       <c r="AA3" t="n">
-        <v>787.635</v>
+        <v>460.545</v>
       </c>
       <c r="AB3" t="n">
-        <v>1317.2034</v>
+        <v>871.5896</v>
       </c>
       <c r="AC3" t="n">
-        <v>530.9571</v>
+        <v>496.1425</v>
       </c>
       <c r="AD3" t="n">
-        <v>804.3363400000001</v>
+        <v>492.0366</v>
       </c>
       <c r="AE3" t="n">
-        <v>611.9182800000001</v>
+        <v>513.8641</v>
       </c>
       <c r="AF3" t="n">
-        <v>2894388.44</v>
+        <v>2863034</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -805,94 +805,94 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6497831800</v>
+        <v>63361520</v>
       </c>
       <c r="D4" t="n">
-        <v>96313935400</v>
+        <v>185214</v>
       </c>
       <c r="E4" t="n">
-        <v>28272.836</v>
+        <v>31577.75</v>
       </c>
       <c r="F4" t="n">
-        <v>281.153234</v>
+        <v>8.97705</v>
       </c>
       <c r="G4" t="n">
-        <v>99.32749800000001</v>
+        <v>82.58056999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>64.17191800000001</v>
+        <v>44.80359</v>
       </c>
       <c r="I4" t="n">
-        <v>381.05724</v>
+        <v>103.8203</v>
       </c>
       <c r="J4" t="n">
-        <v>79.20436600000001</v>
+        <v>46.7639</v>
       </c>
       <c r="K4" t="n">
-        <v>2243.77712</v>
+        <v>2239.818</v>
       </c>
       <c r="L4" t="n">
-        <v>1682.5334</v>
+        <v>1208.926</v>
       </c>
       <c r="M4" t="n">
-        <v>536.1255199999999</v>
+        <v>100.2107</v>
       </c>
       <c r="N4" t="n">
-        <v>86530307.59999999</v>
+        <v>3893079</v>
       </c>
       <c r="O4" t="n">
-        <v>2525599.64</v>
+        <v>934.0027</v>
       </c>
       <c r="P4" t="n">
-        <v>20893.56866</v>
+        <v>24982.35</v>
       </c>
       <c r="Q4" t="n">
-        <v>27155.704</v>
+        <v>4147.546</v>
       </c>
       <c r="R4" t="n">
-        <v>558.5558599999999</v>
+        <v>267.5247</v>
       </c>
       <c r="S4" t="n">
-        <v>206.54194</v>
+        <v>392.1092</v>
       </c>
       <c r="T4" t="n">
-        <v>652587.34</v>
+        <v>32947.26</v>
       </c>
       <c r="U4" t="n">
-        <v>217718.26</v>
+        <v>3565.809</v>
       </c>
       <c r="V4" t="n">
-        <v>221.94364</v>
+        <v>97.75415</v>
       </c>
       <c r="W4" t="n">
-        <v>240.75402</v>
+        <v>227.5417</v>
       </c>
       <c r="X4" t="n">
-        <v>765.6887</v>
+        <v>119.3253</v>
       </c>
       <c r="Y4" t="n">
-        <v>429.12602</v>
+        <v>419.3497</v>
       </c>
       <c r="Z4" t="n">
-        <v>392.5751</v>
+        <v>185.8454</v>
       </c>
       <c r="AA4" t="n">
-        <v>787.635</v>
+        <v>448.5413</v>
       </c>
       <c r="AB4" t="n">
-        <v>1310.9454</v>
+        <v>871.5473</v>
       </c>
       <c r="AC4" t="n">
-        <v>510.9472400000001</v>
+        <v>488.2584</v>
       </c>
       <c r="AD4" t="n">
-        <v>804.3363400000001</v>
+        <v>446.2315</v>
       </c>
       <c r="AE4" t="n">
-        <v>611.9182800000001</v>
+        <v>513.55</v>
       </c>
       <c r="AF4" t="n">
-        <v>2894388.44</v>
+        <v>696541.2</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
@@ -906,94 +906,94 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>6497831800</v>
+        <v>86739.62</v>
       </c>
       <c r="D5" t="n">
-        <v>35374245140</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>25283.012</v>
+        <v>22980.85</v>
       </c>
       <c r="F5" t="n">
-        <v>281.153234</v>
+        <v>8.228609000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>99.32749800000001</v>
+        <v>82.58053</v>
       </c>
       <c r="H5" t="n">
-        <v>53.548952</v>
+        <v>38.35822</v>
       </c>
       <c r="I5" t="n">
-        <v>373.43068</v>
+        <v>103.4819</v>
       </c>
       <c r="J5" t="n">
-        <v>79.20436600000001</v>
+        <v>46.76292</v>
       </c>
       <c r="K5" t="n">
-        <v>1944.82012</v>
+        <v>784.3647999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>1682.5334</v>
+        <v>1208.926</v>
       </c>
       <c r="M5" t="n">
-        <v>536.1255199999999</v>
+        <v>100.2107</v>
       </c>
       <c r="N5" t="n">
-        <v>86530307.59999999</v>
+        <v>3747829</v>
       </c>
       <c r="O5" t="n">
-        <v>1315151.24</v>
+        <v>932.8855</v>
       </c>
       <c r="P5" t="n">
-        <v>11541.181</v>
+        <v>1468.355</v>
       </c>
       <c r="Q5" t="n">
-        <v>23283.7762</v>
+        <v>1800.134</v>
       </c>
       <c r="R5" t="n">
-        <v>558.5558599999999</v>
+        <v>251.6907</v>
       </c>
       <c r="S5" t="n">
-        <v>206.54194</v>
+        <v>392.1092</v>
       </c>
       <c r="T5" t="n">
-        <v>652587.34</v>
+        <v>32923.75</v>
       </c>
       <c r="U5" t="n">
-        <v>140695.526</v>
+        <v>3556.581</v>
       </c>
       <c r="V5" t="n">
-        <v>195.22512</v>
+        <v>82.20829999999999</v>
       </c>
       <c r="W5" t="n">
-        <v>240.75402</v>
+        <v>227.5417</v>
       </c>
       <c r="X5" t="n">
-        <v>765.6887</v>
+        <v>116.2975</v>
       </c>
       <c r="Y5" t="n">
-        <v>429.12602</v>
+        <v>419.0138</v>
       </c>
       <c r="Z5" t="n">
-        <v>392.5751</v>
+        <v>129.3223</v>
       </c>
       <c r="AA5" t="n">
-        <v>787.635</v>
+        <v>448.1301</v>
       </c>
       <c r="AB5" t="n">
-        <v>1205.50106</v>
+        <v>565.1944</v>
       </c>
       <c r="AC5" t="n">
-        <v>510.9472400000001</v>
+        <v>448.71</v>
       </c>
       <c r="AD5" t="n">
-        <v>804.3363400000001</v>
+        <v>412.2546</v>
       </c>
       <c r="AE5" t="n">
-        <v>608.7992400000001</v>
+        <v>513.4528</v>
       </c>
       <c r="AF5" t="n">
-        <v>2894388.44</v>
+        <v>379885.6</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
@@ -1007,94 +1007,94 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>6497831800</v>
+        <v>9241.828</v>
       </c>
       <c r="D6" t="n">
-        <v>34974654140</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>19648.226</v>
+        <v>21237.38</v>
       </c>
       <c r="F6" t="n">
-        <v>281.153234</v>
+        <v>8.110860000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>88.011286</v>
+        <v>82.58053</v>
       </c>
       <c r="H6" t="n">
-        <v>53.548952</v>
+        <v>32.47925</v>
       </c>
       <c r="I6" t="n">
-        <v>308.904176</v>
+        <v>103.4781</v>
       </c>
       <c r="J6" t="n">
-        <v>79.20436600000001</v>
+        <v>46.76292</v>
       </c>
       <c r="K6" t="n">
-        <v>1294.16722</v>
+        <v>784.164</v>
       </c>
       <c r="L6" t="n">
-        <v>1682.5334</v>
+        <v>1208.926</v>
       </c>
       <c r="M6" t="n">
-        <v>536.1255199999999</v>
+        <v>100.2107</v>
       </c>
       <c r="N6" t="n">
-        <v>86530307.59999999</v>
+        <v>3512391</v>
       </c>
       <c r="O6" t="n">
-        <v>937797.3400000001</v>
+        <v>932.8532</v>
       </c>
       <c r="P6" t="n">
-        <v>7547.383799999999</v>
+        <v>1468.11</v>
       </c>
       <c r="Q6" t="n">
-        <v>14269.6702</v>
+        <v>1799.971</v>
       </c>
       <c r="R6" t="n">
-        <v>510.07278</v>
+        <v>251.3755</v>
       </c>
       <c r="S6" t="n">
-        <v>206.54194</v>
+        <v>366.8716</v>
       </c>
       <c r="T6" t="n">
-        <v>652587.34</v>
+        <v>32916.74</v>
       </c>
       <c r="U6" t="n">
-        <v>105096.818</v>
+        <v>3556.346</v>
       </c>
       <c r="V6" t="n">
-        <v>138.177852</v>
+        <v>82.20782</v>
       </c>
       <c r="W6" t="n">
-        <v>224.7408</v>
+        <v>227.5417</v>
       </c>
       <c r="X6" t="n">
-        <v>765.6887</v>
+        <v>116.2789</v>
       </c>
       <c r="Y6" t="n">
-        <v>429.12602</v>
+        <v>419.0057</v>
       </c>
       <c r="Z6" t="n">
-        <v>381.28366</v>
+        <v>100.2737</v>
       </c>
       <c r="AA6" t="n">
-        <v>737.00882</v>
+        <v>448.1274</v>
       </c>
       <c r="AB6" t="n">
-        <v>1205.50106</v>
+        <v>563.309</v>
       </c>
       <c r="AC6" t="n">
-        <v>501.3517</v>
+        <v>442.239</v>
       </c>
       <c r="AD6" t="n">
-        <v>804.3363400000001</v>
+        <v>404.2168</v>
       </c>
       <c r="AE6" t="n">
-        <v>500.3476000000001</v>
+        <v>513.4527</v>
       </c>
       <c r="AF6" t="n">
-        <v>2894388.44</v>
+        <v>358788.6</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1108,94 +1108,94 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>6497831800</v>
+        <v>5530.371</v>
       </c>
       <c r="D7" t="n">
-        <v>34974654140</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>19648.226</v>
+        <v>7739.204</v>
       </c>
       <c r="F7" t="n">
-        <v>281.153234</v>
+        <v>7.025192</v>
       </c>
       <c r="G7" t="n">
-        <v>88.011286</v>
+        <v>82.58053</v>
       </c>
       <c r="H7" t="n">
-        <v>53.548952</v>
+        <v>2.653301</v>
       </c>
       <c r="I7" t="n">
-        <v>308.904176</v>
+        <v>61.45497</v>
       </c>
       <c r="J7" t="n">
-        <v>78.07181199999999</v>
+        <v>46.76292</v>
       </c>
       <c r="K7" t="n">
-        <v>1294.16722</v>
+        <v>365.3563</v>
       </c>
       <c r="L7" t="n">
-        <v>1682.5334</v>
+        <v>1208.926</v>
       </c>
       <c r="M7" t="n">
-        <v>536.1255199999999</v>
+        <v>100.2106</v>
       </c>
       <c r="N7" t="n">
-        <v>86530307.59999999</v>
+        <v>2099380</v>
       </c>
       <c r="O7" t="n">
-        <v>765593.4</v>
+        <v>932.282</v>
       </c>
       <c r="P7" t="n">
-        <v>7547.383799999999</v>
+        <v>1467.436</v>
       </c>
       <c r="Q7" t="n">
-        <v>14269.6702</v>
+        <v>1735.633</v>
       </c>
       <c r="R7" t="n">
-        <v>510.07278</v>
+        <v>250.5358</v>
       </c>
       <c r="S7" t="n">
-        <v>166.21594</v>
+        <v>287.2661</v>
       </c>
       <c r="T7" t="n">
-        <v>652587.34</v>
+        <v>32879.81</v>
       </c>
       <c r="U7" t="n">
-        <v>64623.1318</v>
+        <v>3555.088</v>
       </c>
       <c r="V7" t="n">
-        <v>138.177852</v>
+        <v>82.20780999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>224.7408</v>
+        <v>227.5417</v>
       </c>
       <c r="X7" t="n">
-        <v>643.18778</v>
+        <v>116.2769</v>
       </c>
       <c r="Y7" t="n">
-        <v>425.77958</v>
+        <v>386.5325</v>
       </c>
       <c r="Z7" t="n">
-        <v>381.28366</v>
+        <v>100</v>
       </c>
       <c r="AA7" t="n">
-        <v>737.00882</v>
+        <v>448.1272</v>
       </c>
       <c r="AB7" t="n">
-        <v>1205.50106</v>
+        <v>562.9511</v>
       </c>
       <c r="AC7" t="n">
-        <v>501.3517</v>
+        <v>440.1231</v>
       </c>
       <c r="AD7" t="n">
-        <v>804.3363400000001</v>
+        <v>397.0119</v>
       </c>
       <c r="AE7" t="n">
-        <v>500.3476000000001</v>
+        <v>289.1797</v>
       </c>
       <c r="AF7" t="n">
-        <v>2894388.44</v>
+        <v>173634.7</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
@@ -1209,94 +1209,94 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>6497831800</v>
+        <v>5529.24</v>
       </c>
       <c r="D8" t="n">
-        <v>34974654140</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>19648.226</v>
+        <v>3560.757</v>
       </c>
       <c r="F8" t="n">
-        <v>281.153234</v>
+        <v>6.312779</v>
       </c>
       <c r="G8" t="n">
-        <v>88.011286</v>
+        <v>82.58053</v>
       </c>
       <c r="H8" t="n">
-        <v>53.548952</v>
+        <v>6.065648e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>308.904176</v>
+        <v>44.19999</v>
       </c>
       <c r="J8" t="n">
-        <v>78.07181199999999</v>
+        <v>32.83356</v>
       </c>
       <c r="K8" t="n">
-        <v>1294.16722</v>
+        <v>328.8687</v>
       </c>
       <c r="L8" t="n">
-        <v>1682.5334</v>
+        <v>1208.926</v>
       </c>
       <c r="M8" t="n">
-        <v>536.1255199999999</v>
+        <v>54.44343</v>
       </c>
       <c r="N8" t="n">
-        <v>86530307.59999999</v>
+        <v>1165722</v>
       </c>
       <c r="O8" t="n">
-        <v>765593.4</v>
+        <v>931.4829</v>
       </c>
       <c r="P8" t="n">
-        <v>6335.7646</v>
+        <v>1465.952</v>
       </c>
       <c r="Q8" t="n">
-        <v>14269.6702</v>
+        <v>1735.074</v>
       </c>
       <c r="R8" t="n">
-        <v>510.07278</v>
+        <v>250.1523</v>
       </c>
       <c r="S8" t="n">
-        <v>166.21594</v>
+        <v>287.2632</v>
       </c>
       <c r="T8" t="n">
-        <v>652587.34</v>
+        <v>32834.34</v>
       </c>
       <c r="U8" t="n">
-        <v>64623.1318</v>
+        <v>3541.549</v>
       </c>
       <c r="V8" t="n">
-        <v>138.177852</v>
+        <v>61.2949</v>
       </c>
       <c r="W8" t="n">
-        <v>224.7408</v>
+        <v>227.5417</v>
       </c>
       <c r="X8" t="n">
-        <v>643.18778</v>
+        <v>116.2769</v>
       </c>
       <c r="Y8" t="n">
-        <v>425.77958</v>
+        <v>386.5325</v>
       </c>
       <c r="Z8" t="n">
-        <v>381.28366</v>
+        <v>100</v>
       </c>
       <c r="AA8" t="n">
-        <v>737.00882</v>
+        <v>448.1272</v>
       </c>
       <c r="AB8" t="n">
-        <v>1205.50106</v>
+        <v>522.3157</v>
       </c>
       <c r="AC8" t="n">
-        <v>501.3517</v>
+        <v>440.1211</v>
       </c>
       <c r="AD8" t="n">
-        <v>804.3363400000001</v>
+        <v>396.5899</v>
       </c>
       <c r="AE8" t="n">
-        <v>500.3476000000001</v>
+        <v>288.8159</v>
       </c>
       <c r="AF8" t="n">
-        <v>2894388.44</v>
+        <v>118144.8</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1310,94 +1310,94 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>6497831800</v>
+        <v>5528.305</v>
       </c>
       <c r="D9" t="n">
-        <v>34974654140</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>19648.226</v>
+        <v>1587.758</v>
       </c>
       <c r="F9" t="n">
-        <v>281.153234</v>
+        <v>5.656316</v>
       </c>
       <c r="G9" t="n">
-        <v>88.011286</v>
+        <v>49.74765</v>
       </c>
       <c r="H9" t="n">
-        <v>53.548952</v>
+        <v>1.47179e-09</v>
       </c>
       <c r="I9" t="n">
-        <v>308.904176</v>
+        <v>44.19999</v>
       </c>
       <c r="J9" t="n">
-        <v>78.07181199999999</v>
+        <v>32.83356</v>
       </c>
       <c r="K9" t="n">
-        <v>1294.16722</v>
+        <v>74.19654</v>
       </c>
       <c r="L9" t="n">
-        <v>1682.5334</v>
+        <v>1208.926</v>
       </c>
       <c r="M9" t="n">
-        <v>536.1255199999999</v>
+        <v>54.44342</v>
       </c>
       <c r="N9" t="n">
-        <v>86530307.59999999</v>
+        <v>614299.9</v>
       </c>
       <c r="O9" t="n">
-        <v>765593.4</v>
+        <v>930.6638</v>
       </c>
       <c r="P9" t="n">
-        <v>6335.7646</v>
+        <v>1464.722</v>
       </c>
       <c r="Q9" t="n">
-        <v>14269.6702</v>
+        <v>1734.481</v>
       </c>
       <c r="R9" t="n">
-        <v>510.07278</v>
+        <v>250.0995</v>
       </c>
       <c r="S9" t="n">
-        <v>166.21594</v>
+        <v>287.1547</v>
       </c>
       <c r="T9" t="n">
-        <v>652587.34</v>
+        <v>32787.86</v>
       </c>
       <c r="U9" t="n">
-        <v>64623.1318</v>
+        <v>3540.726</v>
       </c>
       <c r="V9" t="n">
-        <v>138.177852</v>
+        <v>50.19303</v>
       </c>
       <c r="W9" t="n">
-        <v>224.7408</v>
+        <v>227.5417</v>
       </c>
       <c r="X9" t="n">
-        <v>643.18778</v>
+        <v>116.2769</v>
       </c>
       <c r="Y9" t="n">
-        <v>425.77958</v>
+        <v>386.5325</v>
       </c>
       <c r="Z9" t="n">
-        <v>381.28366</v>
+        <v>100</v>
       </c>
       <c r="AA9" t="n">
-        <v>737.00882</v>
+        <v>448.1272</v>
       </c>
       <c r="AB9" t="n">
-        <v>1205.50106</v>
+        <v>522.3157</v>
       </c>
       <c r="AC9" t="n">
-        <v>501.3517</v>
+        <v>440.1211</v>
       </c>
       <c r="AD9" t="n">
-        <v>804.3363400000001</v>
+        <v>396.5688</v>
       </c>
       <c r="AE9" t="n">
-        <v>500.3476000000001</v>
+        <v>288.8159</v>
       </c>
       <c r="AF9" t="n">
-        <v>2894388.44</v>
+        <v>85810.81</v>
       </c>
       <c r="AG9" t="n">
         <v>10</v>
@@ -1411,94 +1411,94 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>6497831800</v>
+        <v>5527.169</v>
       </c>
       <c r="D10" t="n">
-        <v>34974654140</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>19648.226</v>
+        <v>408.5098</v>
       </c>
       <c r="F10" t="n">
-        <v>281.153234</v>
+        <v>4.917248</v>
       </c>
       <c r="G10" t="n">
-        <v>88.011286</v>
+        <v>49.74765</v>
       </c>
       <c r="H10" t="n">
-        <v>53.548952</v>
+        <v>1.47179e-09</v>
       </c>
       <c r="I10" t="n">
-        <v>308.904176</v>
+        <v>44.19999</v>
       </c>
       <c r="J10" t="n">
-        <v>78.07181199999999</v>
+        <v>32.83356</v>
       </c>
       <c r="K10" t="n">
-        <v>1294.16722</v>
+        <v>42.91118</v>
       </c>
       <c r="L10" t="n">
-        <v>1682.5334</v>
+        <v>1208.926</v>
       </c>
       <c r="M10" t="n">
-        <v>536.1255199999999</v>
+        <v>54.4434</v>
       </c>
       <c r="N10" t="n">
-        <v>86530307.59999999</v>
+        <v>355770.3</v>
       </c>
       <c r="O10" t="n">
-        <v>765593.4</v>
+        <v>929.8497</v>
       </c>
       <c r="P10" t="n">
-        <v>6335.7646</v>
+        <v>1462.99</v>
       </c>
       <c r="Q10" t="n">
-        <v>14269.6702</v>
+        <v>1733.972</v>
       </c>
       <c r="R10" t="n">
-        <v>510.07278</v>
+        <v>250.0334</v>
       </c>
       <c r="S10" t="n">
-        <v>166.21594</v>
+        <v>264.4404</v>
       </c>
       <c r="T10" t="n">
-        <v>652587.34</v>
+        <v>32747.7</v>
       </c>
       <c r="U10" t="n">
-        <v>64623.1318</v>
+        <v>3537.171</v>
       </c>
       <c r="V10" t="n">
-        <v>138.177852</v>
+        <v>29.94964</v>
       </c>
       <c r="W10" t="n">
-        <v>224.7408</v>
+        <v>227.5417</v>
       </c>
       <c r="X10" t="n">
-        <v>643.18778</v>
+        <v>116.2769</v>
       </c>
       <c r="Y10" t="n">
-        <v>425.77958</v>
+        <v>386.5325</v>
       </c>
       <c r="Z10" t="n">
-        <v>381.28366</v>
+        <v>100</v>
       </c>
       <c r="AA10" t="n">
-        <v>737.00882</v>
+        <v>448.1272</v>
       </c>
       <c r="AB10" t="n">
-        <v>1205.50106</v>
+        <v>522.3157</v>
       </c>
       <c r="AC10" t="n">
-        <v>501.3517</v>
+        <v>440.1211</v>
       </c>
       <c r="AD10" t="n">
-        <v>804.3363400000001</v>
+        <v>396.5681</v>
       </c>
       <c r="AE10" t="n">
-        <v>500.3476000000001</v>
+        <v>288.8159</v>
       </c>
       <c r="AF10" t="n">
-        <v>2894388.44</v>
+        <v>68680.99000000001</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
@@ -1512,94 +1512,94 @@
         <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>6497831800</v>
+        <v>5526.32</v>
       </c>
       <c r="D11" t="n">
-        <v>34974654140</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>19648.226</v>
+        <v>48.65434</v>
       </c>
       <c r="F11" t="n">
-        <v>281.153234</v>
+        <v>4.368537</v>
       </c>
       <c r="G11" t="n">
-        <v>88.011286</v>
+        <v>49.74765</v>
       </c>
       <c r="H11" t="n">
-        <v>53.548952</v>
+        <v>1.47179e-09</v>
       </c>
       <c r="I11" t="n">
-        <v>308.904176</v>
+        <v>44.19999</v>
       </c>
       <c r="J11" t="n">
-        <v>78.07181199999999</v>
+        <v>32.83356</v>
       </c>
       <c r="K11" t="n">
-        <v>1294.16722</v>
+        <v>42.91118</v>
       </c>
       <c r="L11" t="n">
-        <v>1682.5334</v>
+        <v>1208.926</v>
       </c>
       <c r="M11" t="n">
-        <v>536.1255199999999</v>
+        <v>54.44339</v>
       </c>
       <c r="N11" t="n">
-        <v>86530307.59999999</v>
+        <v>189459</v>
       </c>
       <c r="O11" t="n">
-        <v>765593.4</v>
+        <v>929.1294</v>
       </c>
       <c r="P11" t="n">
-        <v>6335.7646</v>
+        <v>1461.759</v>
       </c>
       <c r="Q11" t="n">
-        <v>14269.6702</v>
+        <v>1733.352</v>
       </c>
       <c r="R11" t="n">
-        <v>510.07278</v>
+        <v>250.0025</v>
       </c>
       <c r="S11" t="n">
-        <v>166.21594</v>
+        <v>264.2708</v>
       </c>
       <c r="T11" t="n">
-        <v>652587.34</v>
+        <v>32701.41</v>
       </c>
       <c r="U11" t="n">
-        <v>64623.1318</v>
+        <v>3536.452</v>
       </c>
       <c r="V11" t="n">
-        <v>138.177852</v>
+        <v>29.94964</v>
       </c>
       <c r="W11" t="n">
-        <v>224.7408</v>
+        <v>227.5417</v>
       </c>
       <c r="X11" t="n">
-        <v>643.18778</v>
+        <v>116.2769</v>
       </c>
       <c r="Y11" t="n">
-        <v>425.77958</v>
+        <v>386.5325</v>
       </c>
       <c r="Z11" t="n">
-        <v>381.28366</v>
+        <v>100</v>
       </c>
       <c r="AA11" t="n">
-        <v>737.00882</v>
+        <v>448.1272</v>
       </c>
       <c r="AB11" t="n">
-        <v>1205.50106</v>
+        <v>522.3157</v>
       </c>
       <c r="AC11" t="n">
-        <v>501.3517</v>
+        <v>440.1211</v>
       </c>
       <c r="AD11" t="n">
-        <v>804.3363400000001</v>
+        <v>396.5681</v>
       </c>
       <c r="AE11" t="n">
-        <v>500.3476000000001</v>
+        <v>288.8159</v>
       </c>
       <c r="AF11" t="n">
-        <v>2894388.44</v>
+        <v>56764.79</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
@@ -1613,94 +1613,94 @@
         <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>6497831800</v>
+        <v>5525.257</v>
       </c>
       <c r="D12" t="n">
-        <v>34974654140</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>19648.226</v>
+        <v>2.625545</v>
       </c>
       <c r="F12" t="n">
-        <v>281.153234</v>
+        <v>3.758027</v>
       </c>
       <c r="G12" t="n">
-        <v>88.011286</v>
+        <v>49.74765</v>
       </c>
       <c r="H12" t="n">
-        <v>53.548952</v>
+        <v>1.125727e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>308.904176</v>
+        <v>44.19999</v>
       </c>
       <c r="J12" t="n">
-        <v>78.07181199999999</v>
+        <v>32.83356</v>
       </c>
       <c r="K12" t="n">
-        <v>1294.16722</v>
+        <v>42.91118</v>
       </c>
       <c r="L12" t="n">
-        <v>1682.5334</v>
+        <v>1208.926</v>
       </c>
       <c r="M12" t="n">
-        <v>536.1255199999999</v>
+        <v>54.44338</v>
       </c>
       <c r="N12" t="n">
-        <v>86530307.59999999</v>
+        <v>87559.07000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>765593.4</v>
+        <v>928.5108</v>
       </c>
       <c r="P12" t="n">
-        <v>6335.7646</v>
+        <v>1460.144</v>
       </c>
       <c r="Q12" t="n">
-        <v>14269.6702</v>
+        <v>1732.871</v>
       </c>
       <c r="R12" t="n">
-        <v>510.07278</v>
+        <v>249.9775</v>
       </c>
       <c r="S12" t="n">
-        <v>166.21594</v>
+        <v>264.2708</v>
       </c>
       <c r="T12" t="n">
-        <v>652587.34</v>
+        <v>32657.37</v>
       </c>
       <c r="U12" t="n">
-        <v>64623.1318</v>
+        <v>3535.813</v>
       </c>
       <c r="V12" t="n">
-        <v>138.177852</v>
+        <v>29.9496</v>
       </c>
       <c r="W12" t="n">
-        <v>224.7408</v>
+        <v>227.5417</v>
       </c>
       <c r="X12" t="n">
-        <v>643.18778</v>
+        <v>116.2769</v>
       </c>
       <c r="Y12" t="n">
-        <v>425.77958</v>
+        <v>386.5325</v>
       </c>
       <c r="Z12" t="n">
-        <v>381.28366</v>
+        <v>100</v>
       </c>
       <c r="AA12" t="n">
-        <v>737.00882</v>
+        <v>448.1272</v>
       </c>
       <c r="AB12" t="n">
-        <v>1205.50106</v>
+        <v>522.3157</v>
       </c>
       <c r="AC12" t="n">
-        <v>501.3517</v>
+        <v>440.1211</v>
       </c>
       <c r="AD12" t="n">
-        <v>804.3363400000001</v>
+        <v>396.5681</v>
       </c>
       <c r="AE12" t="n">
-        <v>500.3476000000001</v>
+        <v>288.8159</v>
       </c>
       <c r="AF12" t="n">
-        <v>2894388.44</v>
+        <v>47923.29</v>
       </c>
       <c r="AG12" t="n">
         <v>10</v>
@@ -1714,94 +1714,94 @@
         <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>6497831800</v>
+        <v>5524.301</v>
       </c>
       <c r="D13" t="n">
-        <v>34974654140</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>19648.226</v>
+        <v>0.3693434</v>
       </c>
       <c r="F13" t="n">
-        <v>281.153234</v>
+        <v>3.172153</v>
       </c>
       <c r="G13" t="n">
-        <v>88.011286</v>
+        <v>49.74765</v>
       </c>
       <c r="H13" t="n">
-        <v>53.548952</v>
+        <v>3.250307e-10</v>
       </c>
       <c r="I13" t="n">
-        <v>308.904176</v>
+        <v>44.19999</v>
       </c>
       <c r="J13" t="n">
-        <v>78.07181199999999</v>
+        <v>32.83356</v>
       </c>
       <c r="K13" t="n">
-        <v>1294.16722</v>
+        <v>42.91118</v>
       </c>
       <c r="L13" t="n">
-        <v>1682.5334</v>
+        <v>1208.926</v>
       </c>
       <c r="M13" t="n">
-        <v>536.1255199999999</v>
+        <v>54.44338</v>
       </c>
       <c r="N13" t="n">
-        <v>86530307.59999999</v>
+        <v>50533.23</v>
       </c>
       <c r="O13" t="n">
-        <v>765593.4</v>
+        <v>927.9005</v>
       </c>
       <c r="P13" t="n">
-        <v>6335.7646</v>
+        <v>1458.936</v>
       </c>
       <c r="Q13" t="n">
-        <v>14269.6702</v>
+        <v>1732.256</v>
       </c>
       <c r="R13" t="n">
-        <v>510.07278</v>
+        <v>249.9534</v>
       </c>
       <c r="S13" t="n">
-        <v>166.21594</v>
+        <v>264.2708</v>
       </c>
       <c r="T13" t="n">
-        <v>652587.34</v>
+        <v>32605.98</v>
       </c>
       <c r="U13" t="n">
-        <v>64623.1318</v>
+        <v>3535.201</v>
       </c>
       <c r="V13" t="n">
-        <v>138.177852</v>
+        <v>29.9496</v>
       </c>
       <c r="W13" t="n">
-        <v>224.7408</v>
+        <v>227.5417</v>
       </c>
       <c r="X13" t="n">
-        <v>643.18778</v>
+        <v>116.2769</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.77958</v>
+        <v>386.5325</v>
       </c>
       <c r="Z13" t="n">
-        <v>381.28366</v>
+        <v>100</v>
       </c>
       <c r="AA13" t="n">
-        <v>737.00882</v>
+        <v>448.1272</v>
       </c>
       <c r="AB13" t="n">
-        <v>1205.50106</v>
+        <v>522.3157</v>
       </c>
       <c r="AC13" t="n">
-        <v>501.3517</v>
+        <v>440.1211</v>
       </c>
       <c r="AD13" t="n">
-        <v>804.3363400000001</v>
+        <v>396.5681</v>
       </c>
       <c r="AE13" t="n">
-        <v>500.3476000000001</v>
+        <v>288.8159</v>
       </c>
       <c r="AF13" t="n">
-        <v>2894388.44</v>
+        <v>42462.36</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
@@ -1815,94 +1815,94 @@
         <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>6497831800</v>
+        <v>5523.283</v>
       </c>
       <c r="D14" t="n">
-        <v>34974654140</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>19648.226</v>
+        <v>0.03061144</v>
       </c>
       <c r="F14" t="n">
-        <v>281.153234</v>
+        <v>2.512067</v>
       </c>
       <c r="G14" t="n">
-        <v>88.011286</v>
+        <v>49.74765</v>
       </c>
       <c r="H14" t="n">
-        <v>53.548952</v>
+        <v>3.250307e-10</v>
       </c>
       <c r="I14" t="n">
-        <v>308.904176</v>
+        <v>44.19999</v>
       </c>
       <c r="J14" t="n">
-        <v>78.07181199999999</v>
+        <v>32.83356</v>
       </c>
       <c r="K14" t="n">
-        <v>1294.16722</v>
+        <v>42.91118</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.5334</v>
+        <v>1208.926</v>
       </c>
       <c r="M14" t="n">
-        <v>536.1255199999999</v>
+        <v>54.44337</v>
       </c>
       <c r="N14" t="n">
-        <v>86530307.59999999</v>
+        <v>29274.25</v>
       </c>
       <c r="O14" t="n">
-        <v>765593.4</v>
+        <v>927.2388999999999</v>
       </c>
       <c r="P14" t="n">
-        <v>6335.7646</v>
+        <v>1457.175</v>
       </c>
       <c r="Q14" t="n">
-        <v>14269.6702</v>
+        <v>1731.843</v>
       </c>
       <c r="R14" t="n">
-        <v>510.07278</v>
+        <v>249.9369</v>
       </c>
       <c r="S14" t="n">
-        <v>166.21594</v>
+        <v>264.2708</v>
       </c>
       <c r="T14" t="n">
-        <v>652587.34</v>
+        <v>32565.98</v>
       </c>
       <c r="U14" t="n">
-        <v>64623.1318</v>
+        <v>3534.556</v>
       </c>
       <c r="V14" t="n">
-        <v>138.177852</v>
+        <v>29.9496</v>
       </c>
       <c r="W14" t="n">
-        <v>224.7408</v>
+        <v>227.5417</v>
       </c>
       <c r="X14" t="n">
-        <v>643.18778</v>
+        <v>116.2769</v>
       </c>
       <c r="Y14" t="n">
-        <v>425.77958</v>
+        <v>386.5325</v>
       </c>
       <c r="Z14" t="n">
-        <v>381.28366</v>
+        <v>100</v>
       </c>
       <c r="AA14" t="n">
-        <v>737.00882</v>
+        <v>448.1272</v>
       </c>
       <c r="AB14" t="n">
-        <v>1205.50106</v>
+        <v>522.3157</v>
       </c>
       <c r="AC14" t="n">
-        <v>501.3517</v>
+        <v>440.1211</v>
       </c>
       <c r="AD14" t="n">
-        <v>804.3363400000001</v>
+        <v>396.5681</v>
       </c>
       <c r="AE14" t="n">
-        <v>500.3476000000001</v>
+        <v>288.8159</v>
       </c>
       <c r="AF14" t="n">
-        <v>2894388.44</v>
+        <v>38131.13</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -1916,94 +1916,94 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>6497831800</v>
+        <v>5522.176</v>
       </c>
       <c r="D15" t="n">
-        <v>34974654140</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>19648.226</v>
+        <v>0.002778754</v>
       </c>
       <c r="F15" t="n">
-        <v>281.153234</v>
+        <v>1.941243</v>
       </c>
       <c r="G15" t="n">
-        <v>88.011286</v>
+        <v>49.74765</v>
       </c>
       <c r="H15" t="n">
-        <v>53.548952</v>
+        <v>3.250307e-10</v>
       </c>
       <c r="I15" t="n">
-        <v>308.904176</v>
+        <v>44.19999</v>
       </c>
       <c r="J15" t="n">
-        <v>78.07181199999999</v>
+        <v>32.83356</v>
       </c>
       <c r="K15" t="n">
-        <v>1294.16722</v>
+        <v>42.91118</v>
       </c>
       <c r="L15" t="n">
-        <v>1682.5334</v>
+        <v>1208.926</v>
       </c>
       <c r="M15" t="n">
-        <v>536.1255199999999</v>
+        <v>54.44336</v>
       </c>
       <c r="N15" t="n">
-        <v>86530307.59999999</v>
+        <v>15924.6</v>
       </c>
       <c r="O15" t="n">
-        <v>765593.4</v>
+        <v>926.4494</v>
       </c>
       <c r="P15" t="n">
-        <v>6335.7646</v>
+        <v>1455.334</v>
       </c>
       <c r="Q15" t="n">
-        <v>14269.6702</v>
+        <v>1731.446</v>
       </c>
       <c r="R15" t="n">
-        <v>510.07278</v>
+        <v>249.9244</v>
       </c>
       <c r="S15" t="n">
-        <v>166.21594</v>
+        <v>264.2708</v>
       </c>
       <c r="T15" t="n">
-        <v>652587.34</v>
+        <v>32524.61</v>
       </c>
       <c r="U15" t="n">
-        <v>64623.1318</v>
+        <v>3534.001</v>
       </c>
       <c r="V15" t="n">
-        <v>138.177852</v>
+        <v>29.94958</v>
       </c>
       <c r="W15" t="n">
-        <v>224.7408</v>
+        <v>227.5417</v>
       </c>
       <c r="X15" t="n">
-        <v>643.18778</v>
+        <v>116.2769</v>
       </c>
       <c r="Y15" t="n">
-        <v>425.77958</v>
+        <v>386.5325</v>
       </c>
       <c r="Z15" t="n">
-        <v>381.28366</v>
+        <v>100</v>
       </c>
       <c r="AA15" t="n">
-        <v>737.00882</v>
+        <v>448.1272</v>
       </c>
       <c r="AB15" t="n">
-        <v>1205.50106</v>
+        <v>522.3157</v>
       </c>
       <c r="AC15" t="n">
-        <v>501.3517</v>
+        <v>440.1211</v>
       </c>
       <c r="AD15" t="n">
-        <v>804.3363400000001</v>
+        <v>396.5681</v>
       </c>
       <c r="AE15" t="n">
-        <v>500.3476000000001</v>
+        <v>288.8159</v>
       </c>
       <c r="AF15" t="n">
-        <v>2894388.44</v>
+        <v>34243.9</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
